--- a/花费.xlsx
+++ b/花费.xlsx
@@ -1000,7 +1000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1480,10 +1480,13 @@
       <c r="D16" s="1">
         <v>2</v>
       </c>
+      <c r="E16" s="1">
+        <v>14</v>
+      </c>
       <c r="N16" s="15"/>
       <c r="O16" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="P16" s="5"/>
     </row>
@@ -1667,7 +1670,7 @@
       </c>
       <c r="E28" s="22">
         <f>SUM(E2:E27)</f>
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F28" s="22">
         <f>SUM(F2:F27)</f>
@@ -1707,7 +1710,7 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2345.98</v>
+        <v>2359.98</v>
       </c>
       <c r="P28" s="5"/>
     </row>
@@ -1730,7 +1733,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>1635.98</v>
+        <v>1649.98</v>
       </c>
     </row>
   </sheetData>
